--- a/Big_data/hbase/hbase commands.xlsx
+++ b/Big_data/hbase/hbase commands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Big_data/hbase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/Big_data/hbase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13369500-1B33-8B48-85CC-8EFA790980CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DB13DC-44D3-7A41-850F-1A91B700E7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6A3D9311-9823-4F46-9706-5C2F66DB264F}"/>
   </bookViews>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>hbase shell</t>
   </si>
@@ -131,9 +128,6 @@
     <t>To see if a table exists</t>
   </si>
   <si>
-    <t>delete a hbase table</t>
-  </si>
-  <si>
     <t>sudo service --status-all</t>
   </si>
   <si>
@@ -159,6 +153,80 @@
   </si>
   <si>
     <t>Filters in hbase (like where clause)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE hbase_table_1 (key int,value string) STORED BY 'org.apache.hadoop.hive.hbase.HBaseStorageHandler' WITH SERDEPROPERTIES ("hbase.columns.mapping" = ":key,cf1:val") TBLPROPERTIES("hbase.table.name" = "xyz");</t>
+  </si>
+  <si>
+    <t>create hbase-hive table</t>
+  </si>
+  <si>
+    <t>to get the table from memstore to disk forcefully</t>
+  </si>
+  <si>
+    <t>disable 'table_name'</t>
+  </si>
+  <si>
+    <t>delete a hbase table (disableing is required bez data will be stored in memstore also. By disabe table_name we will get the whole data in disk)</t>
+  </si>
+  <si>
+    <t>enable 'table_name'</t>
+  </si>
+  <si>
+    <t>in case you have disabled the table and you want to use again</t>
+  </si>
+  <si>
+    <t>There are 3 types if filter</t>
+  </si>
+  <si>
+    <t>1) value filter   2) Qualifier filter   3)Family Filter</t>
+  </si>
+  <si>
+    <t>Value filter</t>
+  </si>
+  <si>
+    <r>
+      <t>it will give the row which is having value '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>Qualifier Filter</t>
+  </si>
+  <si>
+    <t>It will the values of a specific column. If the column name belongs to 2 or more column families the all those column will be there in the output</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scan 'xyz',{FILTER =&gt; "QualifierFilter(=,'substring:val')"}</t>
+  </si>
+  <si>
+    <t>Family Filter</t>
+  </si>
+  <si>
+    <t>it will give the details of the specific column family</t>
+  </si>
+  <si>
+    <t>scan 'xyz',{FILTER =&gt; "FamilyFilter(=,'substring:cf1')"}</t>
   </si>
 </sst>
 </file>
@@ -202,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -213,10 +281,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,13 +1516,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5897562</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1514,6 +1592,278 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t>drop 'table_name'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3754438</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5683250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224CA87C-AC20-1DC0-4AF2-605050468C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3754438" y="11422062"/>
+          <a:ext cx="5691187" cy="793751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>scan 'table_name',{FILTER =&gt; "ValueFilter(=,'binary: value_name')"}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2508251</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2508251</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF0F0CB-7113-B1D4-5A54-488F48C45A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6270626" y="11572875"/>
+          <a:ext cx="0" cy="277813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4391344</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4437063</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>204469</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12CFBA5-1A01-97DC-44E2-7B9E46922C13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153719" y="12620625"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1135063</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>452436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4968874</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1055687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA35EB2-6D1A-EDC0-DDF4-679CA0FA34CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4897438" y="11858624"/>
+          <a:ext cx="3833811" cy="603251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>here</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> we can mention =, &lt;, &gt;, &lt;=, &gt;= operators. &lt; means all the vlaue which less than mentioned value rows will be given</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
@@ -1821,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED03B46A-CFEB-164A-B633-DA13841C0307}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1851,7 +2201,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1963,45 +2313,132 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
+      <c r="B33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>40</v>
       </c>
     </row>
